--- a/src/QckChi_result.xlsx
+++ b/src/QckChi_result.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="64">
   <si>
     <t xml:space="preserve">=====================</t>
   </si>
@@ -230,6 +230,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -407,15 +408,15 @@
   </sheetPr>
   <dimension ref="A1:R76"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J41" activeCellId="0" sqref="J41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.95"/>
@@ -4544,18 +4545,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:AMJ39"/>
+  <dimension ref="A2:AMJ34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q40" activeCellId="0" sqref="Q40"/>
+      <selection pane="topLeft" activeCell="G39" activeCellId="0" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="3.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="3.45"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="11.52"/>
   </cols>
   <sheetData>
@@ -4937,33 +4938,33 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>49.850198</v>
+        <v>24.322948</v>
       </c>
       <c r="C10" s="3" t="n">
-        <v>49.900716</v>
-      </c>
-      <c r="D10" s="4" t="n">
+        <v>24.322948</v>
+      </c>
+      <c r="D10" s="4" t="str">
         <f aca="false">IF(B10&gt;C10,1,IF(B10=C10,"X",2))</f>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>73598.8</v>
+        <v>7392</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>73598.8</v>
+        <v>7392</v>
       </c>
       <c r="G10" s="4" t="str">
         <f aca="false">IF(E10&gt;F10,1,IF(E10=F10,"X",2))</f>
         <v>X</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>6.345911</v>
+        <v>0.9595</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>1820.984298</v>
+        <v>12.142169</v>
       </c>
       <c r="J10" s="4" t="n">
         <f aca="false">IF(H10&gt;I10,1,IF(H10=I10,"X",2))</f>
@@ -4971,17 +4972,17 @@
       </c>
       <c r="K10" s="3" t="n">
         <f aca="false">I10/H10</f>
-        <v>286.953961062486</v>
+        <v>12.6546836894216</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>95.96796</v>
+        <v>92.239382</v>
       </c>
       <c r="M10" s="3" t="n">
-        <v>96.065215</v>
-      </c>
-      <c r="N10" s="4" t="n">
+        <v>92.239382</v>
+      </c>
+      <c r="N10" s="4" t="str">
         <f aca="false">IF(L10&gt;M10,1,IF(L10=M10,"X",2))</f>
-        <v>2</v>
+        <v>X</v>
       </c>
       <c r="P10" s="0" t="str">
         <f aca="false">IF(D10=N10,"X","_")</f>
@@ -4990,33 +4991,33 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>37.037037</v>
+        <v>53.292496</v>
       </c>
       <c r="C11" s="3" t="n">
-        <v>38.047138</v>
+        <v>53.751914</v>
       </c>
       <c r="D11" s="4" t="n">
         <f aca="false">IF(B11&gt;C11,1,IF(B11=C11,"X",2))</f>
         <v>2</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>239.5</v>
+        <v>435.2</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>235.1</v>
-      </c>
-      <c r="G11" s="4" t="n">
+        <v>435.2</v>
+      </c>
+      <c r="G11" s="4" t="str">
         <f aca="false">IF(E11&gt;F11,1,IF(E11=F11,"X",2))</f>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>0.003929</v>
+        <v>0.007456</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>0.021744</v>
+        <v>0.059354</v>
       </c>
       <c r="J11" s="4" t="n">
         <f aca="false">IF(H11&gt;I11,1,IF(H11=I11,"X",2))</f>
@@ -5024,13 +5025,13 @@
       </c>
       <c r="K11" s="3" t="n">
         <f aca="false">I11/H11</f>
-        <v>5.53423262916773</v>
+        <v>7.9605686695279</v>
       </c>
       <c r="L11" s="3" t="n">
-        <v>56.701031</v>
+        <v>84.671533</v>
       </c>
       <c r="M11" s="3" t="n">
-        <v>58.549223</v>
+        <v>85.40146</v>
       </c>
       <c r="N11" s="4" t="n">
         <f aca="false">IF(L11&gt;M11,1,IF(L11=M11,"X",2))</f>
@@ -5043,33 +5044,33 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>24.322948</v>
+        <v>94.666667</v>
       </c>
       <c r="C12" s="3" t="n">
-        <v>24.322948</v>
-      </c>
-      <c r="D12" s="4" t="str">
+        <v>92.666667</v>
+      </c>
+      <c r="D12" s="4" t="n">
         <f aca="false">IF(B12&gt;C12,1,IF(B12=C12,"X",2))</f>
+        <v>1</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="G12" s="4" t="str">
+        <f aca="false">IF(E12&gt;F12,1,IF(E12=F12,"X",2))</f>
         <v>X</v>
       </c>
-      <c r="E12" s="0" t="n">
-        <v>7391.3</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>7392</v>
-      </c>
-      <c r="G12" s="4" t="n">
-        <f aca="false">IF(E12&gt;F12,1,IF(E12=F12,"X",2))</f>
-        <v>2</v>
-      </c>
       <c r="H12" s="0" t="n">
-        <v>0.9595</v>
+        <v>0.000737</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>12.142169</v>
+        <v>0.001083</v>
       </c>
       <c r="J12" s="4" t="n">
         <f aca="false">IF(H12&gt;I12,1,IF(H12=I12,"X",2))</f>
@@ -5077,17 +5078,17 @@
       </c>
       <c r="K12" s="3" t="n">
         <f aca="false">I12/H12</f>
-        <v>12.6546836894216</v>
+        <v>1.46947082767978</v>
       </c>
       <c r="L12" s="3" t="n">
-        <v>92.239382</v>
+        <v>94.666667</v>
       </c>
       <c r="M12" s="3" t="n">
-        <v>92.239382</v>
-      </c>
-      <c r="N12" s="4" t="str">
+        <v>92.666667</v>
+      </c>
+      <c r="N12" s="4" t="n">
         <f aca="false">IF(L12&gt;M12,1,IF(L12=M12,"X",2))</f>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="P12" s="0" t="str">
         <f aca="false">IF(D12=N12,"X","_")</f>
@@ -5096,33 +5097,33 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>78.19611</v>
+        <v>50.215</v>
       </c>
       <c r="C13" s="3" t="n">
-        <v>74.577949</v>
+        <v>34.065</v>
       </c>
       <c r="D13" s="4" t="n">
         <f aca="false">IF(B13&gt;C13,1,IF(B13=C13,"X",2))</f>
         <v>1</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>7474</v>
+        <v>1320.9</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>7474</v>
-      </c>
-      <c r="G13" s="4" t="str">
+        <v>381.8</v>
+      </c>
+      <c r="G13" s="4" t="n">
         <f aca="false">IF(E13&gt;F13,1,IF(E13=F13,"X",2))</f>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>22.802772</v>
+        <v>0.304632</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>1593.602485</v>
+        <v>11.143852</v>
       </c>
       <c r="J13" s="4" t="n">
         <f aca="false">IF(H13&gt;I13,1,IF(H13=I13,"X",2))</f>
@@ -5130,13 +5131,13 @@
       </c>
       <c r="K13" s="3" t="n">
         <f aca="false">I13/H13</f>
-        <v>69.8863491245713</v>
+        <v>36.5813571784973</v>
       </c>
       <c r="L13" s="3" t="n">
-        <v>78.197531</v>
+        <v>50.215</v>
       </c>
       <c r="M13" s="3" t="n">
-        <v>74.579304</v>
+        <v>38.279582</v>
       </c>
       <c r="N13" s="4" t="n">
         <f aca="false">IF(L13&gt;M13,1,IF(L13=M13,"X",2))</f>
@@ -5149,33 +5150,33 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>53.292496</v>
+        <v>80.636172</v>
       </c>
       <c r="C14" s="3" t="n">
-        <v>53.751914</v>
+        <v>76.745531</v>
       </c>
       <c r="D14" s="4" t="n">
         <f aca="false">IF(B14&gt;C14,1,IF(B14=C14,"X",2))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>435.2</v>
+        <v>354.1</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>435.2</v>
+        <v>354.1</v>
       </c>
       <c r="G14" s="4" t="str">
         <f aca="false">IF(E14&gt;F14,1,IF(E14=F14,"X",2))</f>
         <v>X</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>0.007456</v>
+        <v>0.182082</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>0.059354</v>
+        <v>2.224813</v>
       </c>
       <c r="J14" s="4" t="n">
         <f aca="false">IF(H14&gt;I14,1,IF(H14=I14,"X",2))</f>
@@ -5183,17 +5184,17 @@
       </c>
       <c r="K14" s="3" t="n">
         <f aca="false">I14/H14</f>
-        <v>7.9605686695279</v>
+        <v>12.2187421052054</v>
       </c>
       <c r="L14" s="3" t="n">
-        <v>84.671533</v>
+        <v>80.636172</v>
       </c>
       <c r="M14" s="3" t="n">
-        <v>85.40146</v>
+        <v>76.745531</v>
       </c>
       <c r="N14" s="4" t="n">
         <f aca="false">IF(L14&gt;M14,1,IF(L14=M14,"X",2))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P14" s="0" t="str">
         <f aca="false">IF(D14=N14,"X","_")</f>
@@ -5202,33 +5203,33 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>49.884906</v>
+        <v>89.767442</v>
       </c>
       <c r="C15" s="3" t="n">
-        <v>49.884906</v>
-      </c>
-      <c r="D15" s="4" t="str">
+        <v>84.651163</v>
+      </c>
+      <c r="D15" s="4" t="n">
         <f aca="false">IF(B15&gt;C15,1,IF(B15=C15,"X",2))</f>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>38233.6</v>
+        <v>20.5</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>38233.6</v>
+        <v>20.5</v>
       </c>
       <c r="G15" s="4" t="str">
         <f aca="false">IF(E15&gt;F15,1,IF(E15=F15,"X",2))</f>
         <v>X</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>2.107849</v>
+        <v>0.001017</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>358.384691</v>
+        <v>0.001867</v>
       </c>
       <c r="J15" s="4" t="n">
         <f aca="false">IF(H15&gt;I15,1,IF(H15=I15,"X",2))</f>
@@ -5236,17 +5237,17 @@
       </c>
       <c r="K15" s="3" t="n">
         <f aca="false">I15/H15</f>
-        <v>170.023892128895</v>
+        <v>1.83579154375615</v>
       </c>
       <c r="L15" s="3" t="n">
-        <v>100</v>
+        <v>90.186916</v>
       </c>
       <c r="M15" s="3" t="n">
-        <v>100</v>
-      </c>
-      <c r="N15" s="4" t="str">
+        <v>85.046729</v>
+      </c>
+      <c r="N15" s="4" t="n">
         <f aca="false">IF(L15&gt;M15,1,IF(L15=M15,"X",2))</f>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="P15" s="0" t="str">
         <f aca="false">IF(D15=N15,"X","_")</f>
@@ -5255,33 +5256,33 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>41.851852</v>
+        <v>79.277108</v>
       </c>
       <c r="C16" s="3" t="n">
-        <v>41.481481</v>
+        <v>78.915663</v>
       </c>
       <c r="D16" s="4" t="n">
         <f aca="false">IF(B16&gt;C16,1,IF(B16=C16,"X",2))</f>
         <v>1</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>227.5</v>
+        <v>120.4</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>227.5</v>
+        <v>120.4</v>
       </c>
       <c r="G16" s="4" t="str">
         <f aca="false">IF(E16&gt;F16,1,IF(E16=F16,"X",2))</f>
         <v>X</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>0.004078</v>
+        <v>0.005345</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>0.016765</v>
+        <v>0.018071</v>
       </c>
       <c r="J16" s="4" t="n">
         <f aca="false">IF(H16&gt;I16,1,IF(H16=I16,"X",2))</f>
@@ -5289,13 +5290,13 @@
       </c>
       <c r="K16" s="3" t="n">
         <f aca="false">I16/H16</f>
-        <v>4.11108386463953</v>
+        <v>3.38091674462114</v>
       </c>
       <c r="L16" s="3" t="n">
-        <v>84.962406</v>
+        <v>83.715013</v>
       </c>
       <c r="M16" s="3" t="n">
-        <v>84.210526</v>
+        <v>83.333333</v>
       </c>
       <c r="N16" s="4" t="n">
         <f aca="false">IF(L16&gt;M16,1,IF(L16=M16,"X",2))</f>
@@ -5308,33 +5309,33 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>94.666667</v>
+        <v>92.54386</v>
       </c>
       <c r="C17" s="3" t="n">
-        <v>92.666667</v>
+        <v>91.885965</v>
       </c>
       <c r="D17" s="4" t="n">
         <f aca="false">IF(B17&gt;C17,1,IF(B17=C17,"X",2))</f>
         <v>1</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>14.7</v>
+        <v>53.3</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="G17" s="4" t="str">
+        <v>51.6</v>
+      </c>
+      <c r="G17" s="4" t="n">
         <f aca="false">IF(E17&gt;F17,1,IF(E17=F17,"X",2))</f>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>0.000737</v>
+        <v>0.055508</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>0.001083</v>
+        <v>0.154406</v>
       </c>
       <c r="J17" s="4" t="n">
         <f aca="false">IF(H17&gt;I17,1,IF(H17=I17,"X",2))</f>
@@ -5342,13 +5343,13 @@
       </c>
       <c r="K17" s="3" t="n">
         <f aca="false">I17/H17</f>
-        <v>1.46947082767978</v>
+        <v>2.78168912589176</v>
       </c>
       <c r="L17" s="3" t="n">
-        <v>94.666667</v>
+        <v>92.577697</v>
       </c>
       <c r="M17" s="3" t="n">
-        <v>92.666667</v>
+        <v>91.919561</v>
       </c>
       <c r="N17" s="4" t="n">
         <f aca="false">IF(L17&gt;M17,1,IF(L17=M17,"X",2))</f>
@@ -5361,33 +5362,33 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>50.215</v>
+        <v>97.35262</v>
       </c>
       <c r="C18" s="3" t="n">
-        <v>34.065</v>
+        <v>97.671033</v>
       </c>
       <c r="D18" s="4" t="n">
         <f aca="false">IF(B18&gt;C18,1,IF(B18=C18,"X",2))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>1320.9</v>
+        <v>3333.8</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>381.8</v>
+        <v>3303.5</v>
       </c>
       <c r="G18" s="4" t="n">
         <f aca="false">IF(E18&gt;F18,1,IF(E18=F18,"X",2))</f>
         <v>1</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>0.304632</v>
+        <v>0.153424</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>11.143852</v>
+        <v>7.068353</v>
       </c>
       <c r="J18" s="4" t="n">
         <f aca="false">IF(H18&gt;I18,1,IF(H18=I18,"X",2))</f>
@@ -5395,17 +5396,17 @@
       </c>
       <c r="K18" s="3" t="n">
         <f aca="false">I18/H18</f>
-        <v>36.5813571784973</v>
+        <v>46.0707125351966</v>
       </c>
       <c r="L18" s="3" t="n">
-        <v>50.215</v>
+        <v>97.467893</v>
       </c>
       <c r="M18" s="3" t="n">
-        <v>38.279582</v>
+        <v>97.786684</v>
       </c>
       <c r="N18" s="4" t="n">
         <f aca="false">IF(L18&gt;M18,1,IF(L18=M18,"X",2))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P18" s="0" t="str">
         <f aca="false">IF(D18=N18,"X","_")</f>
@@ -5414,33 +5415,33 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>80.636172</v>
+        <v>72.353812</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>76.745531</v>
+        <v>71.817172</v>
       </c>
       <c r="D19" s="4" t="n">
         <f aca="false">IF(B19&gt;C19,1,IF(B19=C19,"X",2))</f>
         <v>1</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>354.1</v>
+        <v>58.4</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>354.1</v>
+        <v>58.4</v>
       </c>
       <c r="G19" s="4" t="str">
         <f aca="false">IF(E19&gt;F19,1,IF(E19=F19,"X",2))</f>
         <v>X</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>0.182082</v>
+        <v>0.034246</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>2.224813</v>
+        <v>0.08816</v>
       </c>
       <c r="J19" s="4" t="n">
         <f aca="false">IF(H19&gt;I19,1,IF(H19=I19,"X",2))</f>
@@ -5448,13 +5449,13 @@
       </c>
       <c r="K19" s="3" t="n">
         <f aca="false">I19/H19</f>
-        <v>12.2187421052054</v>
+        <v>2.57431524849617</v>
       </c>
       <c r="L19" s="3" t="n">
-        <v>80.636172</v>
+        <v>72.353812</v>
       </c>
       <c r="M19" s="3" t="n">
-        <v>76.745531</v>
+        <v>71.817172</v>
       </c>
       <c r="N19" s="4" t="n">
         <f aca="false">IF(L19&gt;M19,1,IF(L19=M19,"X",2))</f>
@@ -5467,33 +5468,33 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>89.767442</v>
+        <v>71.875</v>
       </c>
       <c r="C20" s="3" t="n">
-        <v>84.651163</v>
+        <v>72.786458</v>
       </c>
       <c r="D20" s="4" t="n">
         <f aca="false">IF(B20&gt;C20,1,IF(B20=C20,"X",2))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>20.5</v>
+        <v>110.7</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>20.5</v>
+        <v>110.7</v>
       </c>
       <c r="G20" s="4" t="str">
         <f aca="false">IF(E20&gt;F20,1,IF(E20=F20,"X",2))</f>
         <v>X</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>0.001017</v>
+        <v>0.010259</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>0.001867</v>
+        <v>0.033721</v>
       </c>
       <c r="J20" s="4" t="n">
         <f aca="false">IF(H20&gt;I20,1,IF(H20=I20,"X",2))</f>
@@ -5501,17 +5502,17 @@
       </c>
       <c r="K20" s="3" t="n">
         <f aca="false">I20/H20</f>
-        <v>1.83579154375615</v>
+        <v>3.28696754069597</v>
       </c>
       <c r="L20" s="3" t="n">
-        <v>90.186916</v>
+        <v>72.156863</v>
       </c>
       <c r="M20" s="3" t="n">
-        <v>85.046729</v>
+        <v>73.071895</v>
       </c>
       <c r="N20" s="4" t="n">
         <f aca="false">IF(L20&gt;M20,1,IF(L20=M20,"X",2))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P20" s="0" t="str">
         <f aca="false">IF(D20=N20,"X","_")</f>
@@ -5520,33 +5521,33 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>79.277108</v>
+        <v>88.243243</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>78.915663</v>
+        <v>55.189189</v>
       </c>
       <c r="D21" s="4" t="n">
         <f aca="false">IF(B21&gt;C21,1,IF(B21=C21,"X",2))</f>
         <v>1</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>120.4</v>
+        <v>1080</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>120.4</v>
+        <v>1080</v>
       </c>
       <c r="G21" s="4" t="str">
         <f aca="false">IF(E21&gt;F21,1,IF(E21=F21,"X",2))</f>
         <v>X</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>0.005345</v>
+        <v>0.121407</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>0.018071</v>
+        <v>3.822583</v>
       </c>
       <c r="J21" s="4" t="n">
         <f aca="false">IF(H21&gt;I21,1,IF(H21=I21,"X",2))</f>
@@ -5554,13 +5555,13 @@
       </c>
       <c r="K21" s="3" t="n">
         <f aca="false">I21/H21</f>
-        <v>3.38091674462114</v>
+        <v>31.4856886340985</v>
       </c>
       <c r="L21" s="3" t="n">
-        <v>83.715013</v>
+        <v>88.290968</v>
       </c>
       <c r="M21" s="3" t="n">
-        <v>83.333333</v>
+        <v>55.219037</v>
       </c>
       <c r="N21" s="4" t="n">
         <f aca="false">IF(L21&gt;M21,1,IF(L21=M21,"X",2))</f>
@@ -5573,33 +5574,33 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>92.54386</v>
+        <v>69.480519</v>
       </c>
       <c r="C22" s="3" t="n">
-        <v>91.885965</v>
+        <v>72.294372</v>
       </c>
       <c r="D22" s="4" t="n">
         <f aca="false">IF(B22&gt;C22,1,IF(B22=C22,"X",2))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>53.3</v>
+        <v>190.9</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>51.6</v>
-      </c>
-      <c r="G22" s="4" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="G22" s="4" t="str">
         <f aca="false">IF(E22&gt;F22,1,IF(E22=F22,"X",2))</f>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>0.055508</v>
+        <v>0.003201</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>0.154406</v>
+        <v>0.034588</v>
       </c>
       <c r="J22" s="4" t="n">
         <f aca="false">IF(H22&gt;I22,1,IF(H22=I22,"X",2))</f>
@@ -5607,17 +5608,17 @@
       </c>
       <c r="K22" s="3" t="n">
         <f aca="false">I22/H22</f>
-        <v>2.78168912589176</v>
+        <v>10.8053733208372</v>
       </c>
       <c r="L22" s="3" t="n">
-        <v>92.577697</v>
+        <v>69.934641</v>
       </c>
       <c r="M22" s="3" t="n">
-        <v>91.919561</v>
+        <v>72.766885</v>
       </c>
       <c r="N22" s="4" t="n">
         <f aca="false">IF(L22&gt;M22,1,IF(L22=M22,"X",2))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P22" s="0" t="str">
         <f aca="false">IF(D22=N22,"X","_")</f>
@@ -5626,33 +5627,33 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>97.35262</v>
+        <v>74.374514</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>97.671033</v>
+        <v>47.474747</v>
       </c>
       <c r="D23" s="4" t="n">
         <f aca="false">IF(B23&gt;C23,1,IF(B23=C23,"X",2))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>3333.8</v>
+        <v>1458.6</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>3303.5</v>
+        <v>1228.7</v>
       </c>
       <c r="G23" s="4" t="n">
         <f aca="false">IF(E23&gt;F23,1,IF(E23=F23,"X",2))</f>
         <v>1</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>0.153424</v>
+        <v>0.234403</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>7.068353</v>
+        <v>12.964517</v>
       </c>
       <c r="J23" s="4" t="n">
         <f aca="false">IF(H23&gt;I23,1,IF(H23=I23,"X",2))</f>
@@ -5660,17 +5661,17 @@
       </c>
       <c r="K23" s="3" t="n">
         <f aca="false">I23/H23</f>
-        <v>46.0707125351966</v>
+        <v>55.308664991489</v>
       </c>
       <c r="L23" s="3" t="n">
-        <v>97.467893</v>
+        <v>75.703891</v>
       </c>
       <c r="M23" s="3" t="n">
-        <v>97.786684</v>
+        <v>48.53829</v>
       </c>
       <c r="N23" s="4" t="n">
         <f aca="false">IF(L23&gt;M23,1,IF(L23=M23,"X",2))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P23" s="0" t="str">
         <f aca="false">IF(D23=N23,"X","_")</f>
@@ -5679,33 +5680,33 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>72.353812</v>
+        <v>86.623377</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>71.817172</v>
+        <v>86.060606</v>
       </c>
       <c r="D24" s="4" t="n">
         <f aca="false">IF(B24&gt;C24,1,IF(B24=C24,"X",2))</f>
         <v>1</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>58.4</v>
+        <v>318.3</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>58.4</v>
-      </c>
-      <c r="G24" s="4" t="str">
+        <v>282.8</v>
+      </c>
+      <c r="G24" s="4" t="n">
         <f aca="false">IF(E24&gt;F24,1,IF(E24=F24,"X",2))</f>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>0.034246</v>
+        <v>0.037196</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>0.08816</v>
+        <v>0.281023</v>
       </c>
       <c r="J24" s="4" t="n">
         <f aca="false">IF(H24&gt;I24,1,IF(H24=I24,"X",2))</f>
@@ -5713,13 +5714,13 @@
       </c>
       <c r="K24" s="3" t="n">
         <f aca="false">I24/H24</f>
-        <v>2.57431524849617</v>
+        <v>7.55519410689322</v>
       </c>
       <c r="L24" s="3" t="n">
-        <v>72.353812</v>
+        <v>87.037843</v>
       </c>
       <c r="M24" s="3" t="n">
-        <v>71.817172</v>
+        <v>86.472379</v>
       </c>
       <c r="N24" s="4" t="n">
         <f aca="false">IF(L24&gt;M24,1,IF(L24=M24,"X",2))</f>
@@ -5732,33 +5733,33 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>71.875</v>
+        <v>82.468663</v>
       </c>
       <c r="C25" s="3" t="n">
-        <v>72.786458</v>
+        <v>80.163451</v>
       </c>
       <c r="D25" s="4" t="n">
         <f aca="false">IF(B25&gt;C25,1,IF(B25=C25,"X",2))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>110.7</v>
+        <v>28.8</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>110.7</v>
-      </c>
-      <c r="G25" s="4" t="str">
+        <v>26.7</v>
+      </c>
+      <c r="G25" s="4" t="n">
         <f aca="false">IF(E25&gt;F25,1,IF(E25=F25,"X",2))</f>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>0.010259</v>
+        <v>0.597692</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>0.033721</v>
+        <v>0.984147</v>
       </c>
       <c r="J25" s="4" t="n">
         <f aca="false">IF(H25&gt;I25,1,IF(H25=I25,"X",2))</f>
@@ -5766,17 +5767,17 @@
       </c>
       <c r="K25" s="3" t="n">
         <f aca="false">I25/H25</f>
-        <v>3.28696754069597</v>
+        <v>1.64657883993763</v>
       </c>
       <c r="L25" s="3" t="n">
-        <v>72.156863</v>
+        <v>82.471507</v>
       </c>
       <c r="M25" s="3" t="n">
-        <v>73.071895</v>
+        <v>80.167598</v>
       </c>
       <c r="N25" s="4" t="n">
         <f aca="false">IF(L25&gt;M25,1,IF(L25=M25,"X",2))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P25" s="0" t="str">
         <f aca="false">IF(D25=N25,"X","_")</f>
@@ -5785,33 +5786,33 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>88.243243</v>
+        <v>72.91712</v>
       </c>
       <c r="C26" s="3" t="n">
-        <v>55.189189</v>
+        <v>71.503154</v>
       </c>
       <c r="D26" s="4" t="n">
         <f aca="false">IF(B26&gt;C26,1,IF(B26=C26,"X",2))</f>
         <v>1</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>1080</v>
+        <v>372.1</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>1080</v>
+        <v>372.1</v>
       </c>
       <c r="G26" s="4" t="str">
         <f aca="false">IF(E26&gt;F26,1,IF(E26=F26,"X",2))</f>
         <v>X</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>0.121407</v>
+        <v>0.256961</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>3.822583</v>
+        <v>1.638114</v>
       </c>
       <c r="J26" s="4" t="n">
         <f aca="false">IF(H26&gt;I26,1,IF(H26=I26,"X",2))</f>
@@ -5819,13 +5820,13 @@
       </c>
       <c r="K26" s="3" t="n">
         <f aca="false">I26/H26</f>
-        <v>31.4856886340985</v>
+        <v>6.37495184094084</v>
       </c>
       <c r="L26" s="3" t="n">
-        <v>88.290968</v>
+        <v>73.524896</v>
       </c>
       <c r="M26" s="3" t="n">
-        <v>55.219037</v>
+        <v>72.099145</v>
       </c>
       <c r="N26" s="4" t="n">
         <f aca="false">IF(L26&gt;M26,1,IF(L26=M26,"X",2))</f>
@@ -5838,33 +5839,33 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>69.480519</v>
+        <v>77.381818</v>
       </c>
       <c r="C27" s="3" t="n">
-        <v>72.294372</v>
+        <v>70.8</v>
       </c>
       <c r="D27" s="4" t="n">
         <f aca="false">IF(B27&gt;C27,1,IF(B27=C27,"X",2))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>190.9</v>
+        <v>1187.7</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>190.9</v>
-      </c>
-      <c r="G27" s="4" t="str">
+        <v>907.2</v>
+      </c>
+      <c r="G27" s="4" t="n">
         <f aca="false">IF(E27&gt;F27,1,IF(E27=F27,"X",2))</f>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>0.003201</v>
+        <v>0.223541</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>0.034588</v>
+        <v>6.355889</v>
       </c>
       <c r="J27" s="4" t="n">
         <f aca="false">IF(H27&gt;I27,1,IF(H27=I27,"X",2))</f>
@@ -5872,17 +5873,17 @@
       </c>
       <c r="K27" s="3" t="n">
         <f aca="false">I27/H27</f>
-        <v>10.8053733208372</v>
+        <v>28.4327662486971</v>
       </c>
       <c r="L27" s="3" t="n">
-        <v>69.934641</v>
+        <v>78.480546</v>
       </c>
       <c r="M27" s="3" t="n">
-        <v>72.766885</v>
+        <v>73.610586</v>
       </c>
       <c r="N27" s="4" t="n">
         <f aca="false">IF(L27&gt;M27,1,IF(L27=M27,"X",2))</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P27" s="0" t="str">
         <f aca="false">IF(D27=N27,"X","_")</f>
@@ -5891,33 +5892,33 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>74.374514</v>
+        <v>92.347222</v>
       </c>
       <c r="C28" s="3" t="n">
-        <v>47.474747</v>
+        <v>92.027778</v>
       </c>
       <c r="D28" s="4" t="n">
         <f aca="false">IF(B28&gt;C28,1,IF(B28=C28,"X",2))</f>
         <v>1</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>1458.6</v>
+        <v>463</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>1228.7</v>
+        <v>461.9</v>
       </c>
       <c r="G28" s="4" t="n">
         <f aca="false">IF(E28&gt;F28,1,IF(E28=F28,"X",2))</f>
         <v>1</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>0.234403</v>
+        <v>0.130387</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>12.964517</v>
+        <v>0.785351</v>
       </c>
       <c r="J28" s="4" t="n">
         <f aca="false">IF(H28&gt;I28,1,IF(H28=I28,"X",2))</f>
@@ -5925,13 +5926,13 @@
       </c>
       <c r="K28" s="3" t="n">
         <f aca="false">I28/H28</f>
-        <v>55.308664991489</v>
+        <v>6.02323084356569</v>
       </c>
       <c r="L28" s="3" t="n">
-        <v>75.703891</v>
+        <v>93.136294</v>
       </c>
       <c r="M28" s="3" t="n">
-        <v>48.53829</v>
+        <v>92.81412</v>
       </c>
       <c r="N28" s="4" t="n">
         <f aca="false">IF(L28&gt;M28,1,IF(L28=M28,"X",2))</f>
@@ -5944,33 +5945,33 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>86.623377</v>
+        <v>88.837838</v>
       </c>
       <c r="C29" s="3" t="n">
-        <v>86.060606</v>
+        <v>90.540541</v>
       </c>
       <c r="D29" s="4" t="n">
         <f aca="false">IF(B29&gt;C29,1,IF(B29=C29,"X",2))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>318.3</v>
+        <v>1539.6</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>282.8</v>
-      </c>
-      <c r="G29" s="4" t="n">
+        <v>1539.6</v>
+      </c>
+      <c r="G29" s="4" t="str">
         <f aca="false">IF(E29&gt;F29,1,IF(E29=F29,"X",2))</f>
-        <v>1</v>
+        <v>X</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>0.037196</v>
+        <v>0.160099</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>0.281023</v>
+        <v>5.414788</v>
       </c>
       <c r="J29" s="4" t="n">
         <f aca="false">IF(H29&gt;I29,1,IF(H29=I29,"X",2))</f>
@@ -5978,17 +5979,17 @@
       </c>
       <c r="K29" s="3" t="n">
         <f aca="false">I29/H29</f>
-        <v>7.55519410689322</v>
+        <v>33.8214979481446</v>
       </c>
       <c r="L29" s="3" t="n">
-        <v>87.037843</v>
+        <v>88.837838</v>
       </c>
       <c r="M29" s="3" t="n">
-        <v>86.472379</v>
+        <v>90.540541</v>
       </c>
       <c r="N29" s="4" t="n">
         <f aca="false">IF(L29&gt;M29,1,IF(L29=M29,"X",2))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P29" s="0" t="str">
         <f aca="false">IF(D29=N29,"X","_")</f>
@@ -5997,33 +5998,33 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>82.468663</v>
+        <v>58.628842</v>
       </c>
       <c r="C30" s="3" t="n">
-        <v>80.163451</v>
+        <v>59.692671</v>
       </c>
       <c r="D30" s="4" t="n">
         <f aca="false">IF(B30&gt;C30,1,IF(B30=C30,"X",2))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>28.8</v>
+        <v>405.6</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>26.7</v>
+        <v>262.6</v>
       </c>
       <c r="G30" s="4" t="n">
         <f aca="false">IF(E30&gt;F30,1,IF(E30=F30,"X",2))</f>
         <v>1</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>0.597692</v>
+        <v>0.014785</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>0.984147</v>
+        <v>0.177454</v>
       </c>
       <c r="J30" s="4" t="n">
         <f aca="false">IF(H30&gt;I30,1,IF(H30=I30,"X",2))</f>
@@ -6031,17 +6032,17 @@
       </c>
       <c r="K30" s="3" t="n">
         <f aca="false">I30/H30</f>
-        <v>1.64657883993763</v>
+        <v>12.0022996280014</v>
       </c>
       <c r="L30" s="3" t="n">
-        <v>82.471507</v>
+        <v>59.188544</v>
       </c>
       <c r="M30" s="3" t="n">
-        <v>80.167598</v>
+        <v>60.697115</v>
       </c>
       <c r="N30" s="4" t="n">
         <f aca="false">IF(L30&gt;M30,1,IF(L30=M30,"X",2))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P30" s="0" t="str">
         <f aca="false">IF(D30=N30,"X","_")</f>
@@ -6050,33 +6051,33 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>72.91712</v>
+        <v>64.242424</v>
       </c>
       <c r="C31" s="3" t="n">
-        <v>71.503154</v>
+        <v>49.59596</v>
       </c>
       <c r="D31" s="4" t="n">
         <f aca="false">IF(B31&gt;C31,1,IF(B31=C31,"X",2))</f>
         <v>1</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>372.1</v>
+        <v>279.6</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>372.1</v>
-      </c>
-      <c r="G31" s="4" t="str">
+        <v>153.8</v>
+      </c>
+      <c r="G31" s="4" t="n">
         <f aca="false">IF(E31&gt;F31,1,IF(E31=F31,"X",2))</f>
-        <v>X</v>
+        <v>1</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>0.256961</v>
+        <v>0.015012</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>1.638114</v>
+        <v>0.066303</v>
       </c>
       <c r="J31" s="4" t="n">
         <f aca="false">IF(H31&gt;I31,1,IF(H31=I31,"X",2))</f>
@@ -6084,13 +6085,13 @@
       </c>
       <c r="K31" s="3" t="n">
         <f aca="false">I31/H31</f>
-        <v>6.37495184094084</v>
+        <v>4.41666666666667</v>
       </c>
       <c r="L31" s="3" t="n">
-        <v>73.524896</v>
+        <v>64.242424</v>
       </c>
       <c r="M31" s="3" t="n">
-        <v>72.099145</v>
+        <v>50.255885</v>
       </c>
       <c r="N31" s="4" t="n">
         <f aca="false">IF(L31&gt;M31,1,IF(L31=M31,"X",2))</f>
@@ -6103,33 +6104,33 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>77.381818</v>
+        <v>52.03252</v>
       </c>
       <c r="C32" s="3" t="n">
-        <v>70.8</v>
+        <v>51.844903</v>
       </c>
       <c r="D32" s="4" t="n">
         <f aca="false">IF(B32&gt;C32,1,IF(B32=C32,"X",2))</f>
         <v>1</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>1187.7</v>
+        <v>219.7</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>907.2</v>
+        <v>129.2</v>
       </c>
       <c r="G32" s="4" t="n">
         <f aca="false">IF(E32&gt;F32,1,IF(E32=F32,"X",2))</f>
         <v>1</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>0.223541</v>
+        <v>0.019048</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>6.355889</v>
+        <v>0.156741</v>
       </c>
       <c r="J32" s="4" t="n">
         <f aca="false">IF(H32&gt;I32,1,IF(H32=I32,"X",2))</f>
@@ -6137,13 +6138,13 @@
       </c>
       <c r="K32" s="3" t="n">
         <f aca="false">I32/H32</f>
-        <v>28.4327662486971</v>
+        <v>8.2287379252415</v>
       </c>
       <c r="L32" s="3" t="n">
-        <v>78.480546</v>
+        <v>52.097683</v>
       </c>
       <c r="M32" s="3" t="n">
-        <v>73.610586</v>
+        <v>51.909831</v>
       </c>
       <c r="N32" s="4" t="n">
         <f aca="false">IF(L32&gt;M32,1,IF(L32=M32,"X",2))</f>
@@ -6156,33 +6157,33 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>92.347222</v>
+        <v>41.261739</v>
       </c>
       <c r="C33" s="3" t="n">
-        <v>92.027778</v>
+        <v>48.42793</v>
       </c>
       <c r="D33" s="4" t="n">
         <f aca="false">IF(B33&gt;C33,1,IF(B33=C33,"X",2))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>463</v>
+        <v>260.9</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>461.9</v>
+        <v>76.6</v>
       </c>
       <c r="G33" s="4" t="n">
         <f aca="false">IF(E33&gt;F33,1,IF(E33=F33,"X",2))</f>
         <v>1</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>0.130387</v>
+        <v>0.064612</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>0.785351</v>
+        <v>0.678111</v>
       </c>
       <c r="J33" s="4" t="n">
         <f aca="false">IF(H33&gt;I33,1,IF(H33=I33,"X",2))</f>
@@ -6190,52 +6191,55 @@
       </c>
       <c r="K33" s="3" t="n">
         <f aca="false">I33/H33</f>
-        <v>6.02323084356569</v>
+        <v>10.4951247446295</v>
       </c>
       <c r="L33" s="3" t="n">
-        <v>93.136294</v>
+        <v>41.287028</v>
       </c>
       <c r="M33" s="3" t="n">
-        <v>92.81412</v>
+        <v>48.527005</v>
       </c>
       <c r="N33" s="4" t="n">
         <f aca="false">IF(L33&gt;M33,1,IF(L33=M33,"X",2))</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P33" s="0" t="str">
         <f aca="false">IF(D33=N33,"X","_")</f>
         <v>X</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34" s="3" t="n">
-        <v>88.837838</v>
-      </c>
-      <c r="C34" s="3" t="n">
-        <v>90.540541</v>
-      </c>
-      <c r="D34" s="4" t="n">
-        <f aca="false">IF(B34&gt;C34,1,IF(B34=C34,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <v>1539.6</v>
-      </c>
-      <c r="F34" s="0" t="n">
-        <v>1539.6</v>
-      </c>
-      <c r="G34" s="4" t="str">
+    <row r="34" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="5" t="n">
+        <f aca="false">AVERAGE(B4:B33)</f>
+        <v>69.6142303333333</v>
+      </c>
+      <c r="C34" s="5" t="n">
+        <f aca="false">AVERAGE(C4:C33)</f>
+        <v>65.9149082333333</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="5" t="n">
+        <f aca="false">AVERAGE(E4:E33)</f>
+        <v>1210.64</v>
+      </c>
+      <c r="F34" s="5" t="n">
+        <f aca="false">AVERAGE(F4:F33)</f>
+        <v>1141</v>
+      </c>
+      <c r="G34" s="4" t="n">
         <f aca="false">IF(E34&gt;F34,1,IF(E34=F34,"X",2))</f>
-        <v>X</v>
-      </c>
-      <c r="H34" s="0" t="n">
-        <v>0.160099</v>
-      </c>
-      <c r="I34" s="0" t="n">
-        <v>5.414788</v>
+        <v>1</v>
+      </c>
+      <c r="H34" s="5" t="n">
+        <f aca="false">AVERAGE(H4:H33)</f>
+        <v>0.143155566666667</v>
+      </c>
+      <c r="I34" s="5" t="n">
+        <f aca="false">AVERAGE(I4:I33)</f>
+        <v>6.0732091</v>
       </c>
       <c r="J34" s="4" t="n">
         <f aca="false">IF(H34&gt;I34,1,IF(H34=I34,"X",2))</f>
@@ -6243,290 +6247,22 @@
       </c>
       <c r="K34" s="3" t="n">
         <f aca="false">I34/H34</f>
-        <v>33.8214979481446</v>
-      </c>
-      <c r="L34" s="3" t="n">
-        <v>88.837838</v>
-      </c>
-      <c r="M34" s="3" t="n">
-        <v>90.540541</v>
-      </c>
-      <c r="N34" s="4" t="n">
+        <v>42.4238417087984</v>
+      </c>
+      <c r="L34" s="5" t="n">
+        <f aca="false">AVERAGE(L4:L33)</f>
+        <v>74.300648</v>
+      </c>
+      <c r="M34" s="5" t="n">
+        <f aca="false">AVERAGE(M4:M33)</f>
+        <v>71.0298149</v>
+      </c>
+      <c r="N34" s="7" t="n">
         <f aca="false">IF(L34&gt;M34,1,IF(L34=M34,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="P34" s="0" t="str">
-        <f aca="false">IF(D34=N34,"X","_")</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" s="3" t="n">
-        <v>58.628842</v>
-      </c>
-      <c r="C35" s="3" t="n">
-        <v>59.692671</v>
-      </c>
-      <c r="D35" s="4" t="n">
-        <f aca="false">IF(B35&gt;C35,1,IF(B35=C35,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>405.6</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <v>262.6</v>
-      </c>
-      <c r="G35" s="4" t="n">
-        <f aca="false">IF(E35&gt;F35,1,IF(E35=F35,"X",2))</f>
         <v>1</v>
       </c>
-      <c r="H35" s="0" t="n">
-        <v>0.014785</v>
-      </c>
-      <c r="I35" s="0" t="n">
-        <v>0.177454</v>
-      </c>
-      <c r="J35" s="4" t="n">
-        <f aca="false">IF(H35&gt;I35,1,IF(H35=I35,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="K35" s="3" t="n">
-        <f aca="false">I35/H35</f>
-        <v>12.0022996280014</v>
-      </c>
-      <c r="L35" s="3" t="n">
-        <v>59.188544</v>
-      </c>
-      <c r="M35" s="3" t="n">
-        <v>60.697115</v>
-      </c>
-      <c r="N35" s="4" t="n">
-        <f aca="false">IF(L35&gt;M35,1,IF(L35=M35,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="P35" s="0" t="str">
-        <f aca="false">IF(D35=N35,"X","_")</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="B36" s="3" t="n">
-        <v>64.242424</v>
-      </c>
-      <c r="C36" s="3" t="n">
-        <v>49.59596</v>
-      </c>
-      <c r="D36" s="4" t="n">
-        <f aca="false">IF(B36&gt;C36,1,IF(B36=C36,"X",2))</f>
-        <v>1</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>279.6</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <v>153.8</v>
-      </c>
-      <c r="G36" s="4" t="n">
-        <f aca="false">IF(E36&gt;F36,1,IF(E36=F36,"X",2))</f>
-        <v>1</v>
-      </c>
-      <c r="H36" s="0" t="n">
-        <v>0.015012</v>
-      </c>
-      <c r="I36" s="0" t="n">
-        <v>0.066303</v>
-      </c>
-      <c r="J36" s="4" t="n">
-        <f aca="false">IF(H36&gt;I36,1,IF(H36=I36,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="K36" s="3" t="n">
-        <f aca="false">I36/H36</f>
-        <v>4.41666666666667</v>
-      </c>
-      <c r="L36" s="3" t="n">
-        <v>64.242424</v>
-      </c>
-      <c r="M36" s="3" t="n">
-        <v>50.255885</v>
-      </c>
-      <c r="N36" s="4" t="n">
-        <f aca="false">IF(L36&gt;M36,1,IF(L36=M36,"X",2))</f>
-        <v>1</v>
-      </c>
-      <c r="P36" s="0" t="str">
-        <f aca="false">IF(D36=N36,"X","_")</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B37" s="3" t="n">
-        <v>52.03252</v>
-      </c>
-      <c r="C37" s="3" t="n">
-        <v>51.844903</v>
-      </c>
-      <c r="D37" s="4" t="n">
-        <f aca="false">IF(B37&gt;C37,1,IF(B37=C37,"X",2))</f>
-        <v>1</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>219.7</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>129.2</v>
-      </c>
-      <c r="G37" s="4" t="n">
-        <f aca="false">IF(E37&gt;F37,1,IF(E37=F37,"X",2))</f>
-        <v>1</v>
-      </c>
-      <c r="H37" s="0" t="n">
-        <v>0.019048</v>
-      </c>
-      <c r="I37" s="0" t="n">
-        <v>0.156741</v>
-      </c>
-      <c r="J37" s="4" t="n">
-        <f aca="false">IF(H37&gt;I37,1,IF(H37=I37,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="K37" s="3" t="n">
-        <f aca="false">I37/H37</f>
-        <v>8.2287379252415</v>
-      </c>
-      <c r="L37" s="3" t="n">
-        <v>52.097683</v>
-      </c>
-      <c r="M37" s="3" t="n">
-        <v>51.909831</v>
-      </c>
-      <c r="N37" s="4" t="n">
-        <f aca="false">IF(L37&gt;M37,1,IF(L37=M37,"X",2))</f>
-        <v>1</v>
-      </c>
-      <c r="P37" s="0" t="str">
-        <f aca="false">IF(D37=N37,"X","_")</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B38" s="3" t="n">
-        <v>41.261739</v>
-      </c>
-      <c r="C38" s="3" t="n">
-        <v>48.42793</v>
-      </c>
-      <c r="D38" s="4" t="n">
-        <f aca="false">IF(B38&gt;C38,1,IF(B38=C38,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>260.9</v>
-      </c>
-      <c r="F38" s="0" t="n">
-        <v>76.6</v>
-      </c>
-      <c r="G38" s="4" t="n">
-        <f aca="false">IF(E38&gt;F38,1,IF(E38=F38,"X",2))</f>
-        <v>1</v>
-      </c>
-      <c r="H38" s="0" t="n">
-        <v>0.064612</v>
-      </c>
-      <c r="I38" s="0" t="n">
-        <v>0.678111</v>
-      </c>
-      <c r="J38" s="4" t="n">
-        <f aca="false">IF(H38&gt;I38,1,IF(H38=I38,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="K38" s="3" t="n">
-        <f aca="false">I38/H38</f>
-        <v>10.4951247446295</v>
-      </c>
-      <c r="L38" s="3" t="n">
-        <v>41.287028</v>
-      </c>
-      <c r="M38" s="3" t="n">
-        <v>48.527005</v>
-      </c>
-      <c r="N38" s="4" t="n">
-        <f aca="false">IF(L38&gt;M38,1,IF(L38=M38,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="P38" s="0" t="str">
-        <f aca="false">IF(D38=N38,"X","_")</f>
-        <v>X</v>
-      </c>
-    </row>
-    <row r="39" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B39" s="5" t="n">
-        <f aca="false">AVERAGE(B4:B38)</f>
-        <v>67.0070575142857</v>
-      </c>
-      <c r="C39" s="5" t="n">
-        <f aca="false">AVERAGE(C4:C38)</f>
-        <v>63.7525553428571</v>
-      </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="5" t="n">
-        <f aca="false">AVERAGE(E4:E38)</f>
-        <v>4459.76857142857</v>
-      </c>
-      <c r="F39" s="5" t="n">
-        <f aca="false">AVERAGE(F4:F38)</f>
-        <v>4399.97142857143</v>
-      </c>
-      <c r="G39" s="4" t="n">
-        <f aca="false">IF(E39&gt;F39,1,IF(E39=F39,"X",2))</f>
-        <v>1</v>
-      </c>
-      <c r="H39" s="5" t="n">
-        <f aca="false">AVERAGE(H4:H38)</f>
-        <v>1.01597731428571</v>
-      </c>
-      <c r="I39" s="5" t="n">
-        <f aca="false">AVERAGE(I4:I38)</f>
-        <v>113.005893028571</v>
-      </c>
-      <c r="J39" s="4" t="n">
-        <f aca="false">IF(H39&gt;I39,1,IF(H39=I39,"X",2))</f>
-        <v>2</v>
-      </c>
-      <c r="K39" s="3" t="n">
-        <f aca="false">I39/H39</f>
-        <v>111.228756232634</v>
-      </c>
-      <c r="L39" s="5" t="n">
-        <f aca="false">AVERAGE(L4:L38)</f>
-        <v>75.5670962285714</v>
-      </c>
-      <c r="M39" s="5" t="n">
-        <f aca="false">AVERAGE(M4:M38)</f>
-        <v>72.694249</v>
-      </c>
-      <c r="N39" s="7" t="n">
-        <f aca="false">IF(L39&gt;M39,1,IF(L39=M39,"X",2))</f>
-        <v>1</v>
-      </c>
-      <c r="AMI39" s="0"/>
-      <c r="AMJ39" s="0"/>
+      <c r="AMI34" s="0"/>
+      <c r="AMJ34" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
